--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/SPS Dropbox/Jason Bryer/Course Development/IS381/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8773A73A-B555-3F4D-8BF5-401739BF7554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B4B416-6B25-2F4F-ABA3-39C4494881C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30420" yWindow="500" windowWidth="20780" windowHeight="14160" xr2:uid="{BFE2A6F7-E8E8-014E-9460-2468D969C60C}"/>
   </bookViews>
   <sheets>
-    <sheet name="schedule" sheetId="1" r:id="rId1"/>
+    <sheet name="Schedule" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Week</t>
   </si>
@@ -176,6 +176,15 @@
   </si>
   <si>
     <t>/modules/15-Module.html</t>
+  </si>
+  <si>
+    <t>00-Intro_to_Course</t>
+  </si>
+  <si>
+    <t>Resources</t>
+  </si>
+  <si>
+    <t>Meetup</t>
   </si>
 </sst>
 </file>
@@ -666,9 +675,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1044,21 +1056,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9742E9BA-7207-5147-915C-5133B9326A38}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1068,225 +1082,234 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="J1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="H2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>38</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>39</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>40</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>50</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>41</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>19</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>42</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>20</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>43</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>7</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>44</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>8</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>45</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>9</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>46</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>10</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>47</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>11</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>48</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>12</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>49</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>13</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>37</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>14</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>51</v>
       </c>
     </row>
